--- a/medicine/Premiers secours et secourisme/Deutsche_Gesellschaft_zur_Rettung_Schiffbrüchiger/Deutsche_Gesellschaft_zur_Rettung_Schiffbrüchiger.xlsx
+++ b/medicine/Premiers secours et secourisme/Deutsche_Gesellschaft_zur_Rettung_Schiffbrüchiger/Deutsche_Gesellschaft_zur_Rettung_Schiffbrüchiger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deutsche_Gesellschaft_zur_Rettung_Schiffbr%C3%BCchiger</t>
+          <t>Deutsche_Gesellschaft_zur_Rettung_Schiffbrüchiger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Deutsche Gesellschaft zur Rettung Schiffbrüchiger (littéralement, société allemande de sauvetage des naufragés), abrégée DGzRS, est l'organisme allemand chargé des opérations de recherche et sauvetage dans les eaux territoriales allemandes de la mer Baltique et de la mer du Nord, ainsi que dans la zone économique exclusive associée. 
